--- a/2017_2/204-Gnjatovic/204-1016-1-SP.xlsx
+++ b/2017_2/204-Gnjatovic/204-1016-1-SP.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\INZSERVER\RedirectedFolders\Nejab\My Documents\GitHub\PNZ\2017_2\204-Gnjatovic\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>8,4</t>
   </si>
@@ -91,9 +96,6 @@
   </si>
   <si>
     <t>1. + 2. Total</t>
-  </si>
-  <si>
-    <t>Table 4: Decomposition of public debt of the Kingdom of Yugoslavia 1929-1932</t>
   </si>
   <si>
     <r>
@@ -192,22 +194,18 @@
     </r>
   </si>
   <si>
-    <t>*The Kingdom of Yugoslavia was not repaying war debt after 1931. The difference in war debt stock between 1931 and 1932 has appeared because of the devaluation of Pound sterling after Great Britain abolished the gold standard.
-Source: Opšta državna statistika Kraljevine Jugoslavije,  Statistički godišnjak Kraljevine Jugoslavije 1929, Beograd: 1932, p. 498, 499; Opšta državna statistika Kraljevine Jugoslavije, Statistički godišnjak Kraljevine Jugoslavije 1930, Beograd: 1933, p. 468, 469; Opšta državna statistika Kraljevine Jugoslavije, Statistički godišnjak Kraljevine Jugoslavije 1931, Beograd: 1934, p. 466, 467.</t>
-  </si>
-  <si>
     <t>14.981,2*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -282,34 +280,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Officeova tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pisarna">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -347,9 +350,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pisarna">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -381,9 +384,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,9 +419,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pisarna">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,14 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
@@ -606,263 +611,253 @@
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="57.75" customHeight="1">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:10" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="73.5" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    <row r="2" spans="1:10" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="8">
+        <v>5193.8999999999996</v>
+      </c>
+      <c r="C2" s="7">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8">
+        <v>5351.6</v>
+      </c>
+      <c r="E2" s="4">
+        <v>15.5</v>
+      </c>
+      <c r="F2" s="8">
+        <v>5500.6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="H2" s="8">
+        <v>6020.3</v>
+      </c>
+      <c r="I2" s="4">
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>29466.9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>85</v>
+      </c>
+      <c r="D3" s="8">
+        <v>29055.8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>84.4</v>
+      </c>
+      <c r="F3" s="8">
+        <v>30384</v>
+      </c>
+      <c r="G3" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="H3" s="8">
+        <v>32763.200000000001</v>
+      </c>
+      <c r="I3" s="4">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1777.7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1761.5</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1687.5</v>
+      </c>
+      <c r="G4" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="H4" s="8">
+        <v>5628.8</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>17469.900000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>50.4</v>
+      </c>
+      <c r="D5" s="8">
+        <v>17368.8</v>
+      </c>
+      <c r="E5" s="4">
+        <v>50.5</v>
+      </c>
+      <c r="F5" s="8">
+        <v>16637.099999999999</v>
+      </c>
+      <c r="G5" s="4">
+        <v>46.4</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
+      <c r="I5" s="4">
+        <v>38.700000000000003</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30.75" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11">
-        <v>5193.8999999999996</v>
-      </c>
-      <c r="D3" s="10">
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11">
-        <v>5351.6</v>
-      </c>
-      <c r="F3" s="4">
-        <v>15.5</v>
-      </c>
-      <c r="G3" s="11">
-        <v>5500.6</v>
-      </c>
-      <c r="H3" s="4">
-        <v>15.3</v>
-      </c>
-      <c r="I3" s="11">
-        <v>6020.3</v>
-      </c>
-      <c r="J3" s="4">
-        <v>15.5</v>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11">
-        <v>29466.9</v>
-      </c>
-      <c r="D4" s="10">
-        <v>85</v>
-      </c>
-      <c r="E4" s="11">
-        <v>29055.8</v>
-      </c>
-      <c r="F4" s="4">
-        <v>84.4</v>
-      </c>
-      <c r="G4" s="11">
-        <v>30384</v>
-      </c>
-      <c r="H4" s="4">
-        <v>84.8</v>
-      </c>
-      <c r="I4" s="11">
-        <v>32763.200000000001</v>
-      </c>
-      <c r="J4" s="4">
-        <v>84.5</v>
+    <row r="8" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8">
+        <v>34660.800000000003</v>
+      </c>
+      <c r="C8" s="7">
+        <v>100</v>
+      </c>
+      <c r="D8" s="8">
+        <v>34407.4</v>
+      </c>
+      <c r="E8" s="7">
+        <v>100</v>
+      </c>
+      <c r="F8" s="8">
+        <v>35884.6</v>
+      </c>
+      <c r="G8" s="7">
+        <v>100</v>
+      </c>
+      <c r="H8" s="8">
+        <v>38783.5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11">
-        <v>1777.7</v>
-      </c>
-      <c r="D5" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E5" s="11">
-        <v>1761.5</v>
-      </c>
-      <c r="F5" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G5" s="11">
-        <v>1687.5</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4.7</v>
-      </c>
-      <c r="I5" s="11">
-        <v>5628.8</v>
-      </c>
-      <c r="J5" s="4">
-        <v>14.4</v>
-      </c>
+    <row r="10" spans="1:10" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="11">
-        <v>17469.900000000001</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50.4</v>
-      </c>
-      <c r="E6" s="11">
-        <v>17368.8</v>
-      </c>
-      <c r="F6" s="4">
-        <v>50.5</v>
-      </c>
-      <c r="G6" s="11">
-        <v>16637.099999999999</v>
-      </c>
-      <c r="H6" s="4">
-        <v>46.4</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="4">
-        <v>38.700000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="25.5">
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="11">
-        <v>34660.800000000003</v>
-      </c>
-      <c r="D9" s="10">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11">
-        <v>34407.4</v>
-      </c>
-      <c r="F9" s="10">
-        <v>100</v>
-      </c>
-      <c r="G9" s="11">
-        <v>35884.6</v>
-      </c>
-      <c r="H9" s="10">
-        <v>100</v>
-      </c>
-      <c r="I9" s="11">
-        <v>38783.5</v>
-      </c>
-      <c r="J9" s="10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="81" customHeight="1">
-      <c r="B10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-    </row>
-    <row r="15" spans="1:10" ht="12" customHeight="1"/>
+    <row r="15" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B10:J10"/>
-    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
@@ -870,24 +865,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
